--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/word_level_predictions_17.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4737,185 +4737,185 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Locating</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Locating</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/17/word_level_predictions_17.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,161 +4761,161 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,291 +10977,291 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>19</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>19</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>19</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>19</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
